--- a/data/trans_orig/KIDM_C_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EBF79DB-7026-499A-8BC9-372FCE11DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D6E652-255B-4235-B6AD-E4E30B668969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF16117C-8436-4028-8EDE-5D164ECD8280}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D17F4912-EB38-47BE-95CD-90EB2A4CD8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="274">
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>96,0%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>6,79%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>93,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +191,103 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>11,07%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>88,93%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -311,580 +299,568 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
     <t>96,7%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>96,07%</t>
+    <t>96,57%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B41765-C0F2-49FF-A4A9-678B4ACA8537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC969455-3BDC-4E0C-8893-F1286DFD9F63}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1608,10 +1584,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,13 +1602,13 @@
         <v>208295</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>268</v>
@@ -1641,28 +1617,28 @@
         <v>179510</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>582</v>
       </c>
       <c r="N8" s="7">
-        <v>387804</v>
+        <v>387805</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,7 +1680,7 @@
         <v>613</v>
       </c>
       <c r="N9" s="7">
-        <v>407699</v>
+        <v>407700</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1718,7 +1694,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1730,13 +1706,13 @@
         <v>1967</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1745,13 +1721,13 @@
         <v>2841</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1760,13 +1736,13 @@
         <v>4808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1757,13 @@
         <v>47073</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -1796,13 +1772,13 @@
         <v>51405</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -1811,13 +1787,13 @@
         <v>98479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1861,13 @@
         <v>12716</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -1900,13 +1876,13 @@
         <v>15555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -1915,13 +1891,13 @@
         <v>28271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1912,13 @@
         <v>296862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>407</v>
@@ -1951,13 +1927,13 @@
         <v>274437</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>853</v>
@@ -1966,13 +1942,13 @@
         <v>571300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,7 +2004,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4ABCD8-500C-42D6-8E00-0DBA57AC8CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15805265-A960-4103-A260-676FE1C703E1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2064,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2171,13 +2147,13 @@
         <v>4723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2186,13 +2162,13 @@
         <v>6192</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2201,13 +2177,13 @@
         <v>10915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2198,13 @@
         <v>40439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
@@ -2237,13 +2213,13 @@
         <v>45434</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>122</v>
@@ -2252,13 +2228,13 @@
         <v>85872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2302,13 @@
         <v>26577</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -2341,13 +2317,13 @@
         <v>35475</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -2356,13 +2332,13 @@
         <v>62051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2353,13 @@
         <v>196927</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -2392,13 +2368,13 @@
         <v>164273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>521</v>
@@ -2407,13 +2383,13 @@
         <v>361201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2445,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2457,13 @@
         <v>6568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2496,13 +2472,13 @@
         <v>5821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2511,13 +2487,13 @@
         <v>12390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2508,13 @@
         <v>48636</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2547,13 +2523,13 @@
         <v>54980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -2562,13 +2538,13 @@
         <v>103615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2612,13 @@
         <v>37868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2651,13 +2627,13 @@
         <v>47488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -2666,13 +2642,13 @@
         <v>85356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2663,13 @@
         <v>286001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>376</v>
@@ -2702,13 +2678,13 @@
         <v>264686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -2717,13 +2693,13 @@
         <v>550687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2755,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB787C4-E8D0-4751-9902-0D33A776E30D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4811E71-AFFD-426D-B92A-7DBC1D7FCFFF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,7 +2791,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,13 +2898,13 @@
         <v>6255</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2937,13 +2913,13 @@
         <v>2213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2952,13 +2928,13 @@
         <v>8468</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2949,13 @@
         <v>30383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -2988,13 +2964,13 @@
         <v>28393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -3003,13 +2979,13 @@
         <v>58776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3053,13 @@
         <v>22390</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3092,13 +3068,13 @@
         <v>21741</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -3107,13 +3083,13 @@
         <v>44131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3104,13 @@
         <v>214673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>319</v>
@@ -3143,13 +3119,13 @@
         <v>222257</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>612</v>
@@ -3158,13 +3134,13 @@
         <v>436930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,7 +3196,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3232,13 +3208,13 @@
         <v>6448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3247,13 +3223,13 @@
         <v>7575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3262,13 +3238,13 @@
         <v>14023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3259,13 @@
         <v>69054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -3298,13 +3274,13 @@
         <v>63515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -3313,13 +3289,13 @@
         <v>132569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3363,13 @@
         <v>35092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -3402,13 +3378,13 @@
         <v>31528</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -3417,13 +3393,13 @@
         <v>66621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3414,13 @@
         <v>314111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>449</v>
@@ -3453,13 +3429,13 @@
         <v>314166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>880</v>
@@ -3468,13 +3444,13 @@
         <v>628276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3506,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3549,7 +3525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6D8E09-0A14-4C1E-9AF1-61FF8DE2C37F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F665FF02-F6A0-4774-9AAC-A485BF0D1CB8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3566,7 +3542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3673,13 +3649,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3688,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3703,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,10 +3700,10 @@
         <v>16918</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3739,10 +3715,10 @@
         <v>13910</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -3754,10 +3730,10 @@
         <v>30827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -3828,13 +3804,13 @@
         <v>4385</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3843,13 +3819,13 @@
         <v>8140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3858,13 +3834,13 @@
         <v>12524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3855,13 @@
         <v>191538</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>184</v>
@@ -3894,13 +3870,13 @@
         <v>139948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>393</v>
@@ -3909,13 +3885,13 @@
         <v>331487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +3947,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3983,13 +3959,13 @@
         <v>621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3998,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4013,13 +3989,13 @@
         <v>621</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4010,13 @@
         <v>52539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -4049,10 +4025,10 @@
         <v>40548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -4064,13 +4040,13 @@
         <v>93087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4114,13 @@
         <v>5006</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4153,13 +4129,13 @@
         <v>8140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4168,13 +4144,13 @@
         <v>13145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4165,13 @@
         <v>260995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
@@ -4204,13 +4180,13 @@
         <v>194406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>557</v>
@@ -4219,13 +4195,13 @@
         <v>455401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4257,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D6E652-255B-4235-B6AD-E4E30B668969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4847A612-BDD1-4321-871E-83AE47B90841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D17F4912-EB38-47BE-95CD-90EB2A4CD8D7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AEAB0133-04A4-45FF-880C-D65007517F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="280">
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,631 +74,649 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2016 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>11,63%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,37%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
@@ -710,157 +728,157 @@
     <t>0%</t>
   </si>
   <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>4,78%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>90,01%</t>
+  </si>
+  <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC969455-3BDC-4E0C-8893-F1286DFD9F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0489072-F470-4B54-908E-8843294B5413}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1393,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1730</v>
+        <v>1838</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1408,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1838</v>
+        <v>1730</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1441,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>41494</v>
+        <v>43522</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1456,10 +1474,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>43522</v>
+        <v>41494</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1492,25 +1510,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45360</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>65</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>43224</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>68</v>
-      </c>
-      <c r="I6" s="7">
-        <v>45360</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1545,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>9019</v>
+        <v>10876</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1560,10 +1578,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>10876</v>
+        <v>9019</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1584,10 +1602,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,49 +1614,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>268</v>
+      </c>
+      <c r="D8" s="7">
+        <v>179510</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>314</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>208295</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>268</v>
-      </c>
-      <c r="I8" s="7">
-        <v>179510</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>582</v>
       </c>
       <c r="N8" s="7">
-        <v>387805</v>
+        <v>387804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,25 +1665,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>285</v>
+      </c>
+      <c r="D9" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>328</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>217314</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>285</v>
-      </c>
-      <c r="I9" s="7">
-        <v>190386</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1680,7 +1698,7 @@
         <v>613</v>
       </c>
       <c r="N9" s="7">
-        <v>407700</v>
+        <v>407699</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1694,40 +1712,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2841</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1967</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2841</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1736,13 +1754,13 @@
         <v>4808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,34 +1769,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7">
+        <v>51405</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>70</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>47073</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="7">
-        <v>74</v>
-      </c>
-      <c r="I11" s="7">
-        <v>51405</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -1787,13 +1805,13 @@
         <v>98479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,25 +1820,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>73</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>49040</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>78</v>
-      </c>
-      <c r="I12" s="7">
-        <v>54246</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1855,34 +1873,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15555</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12716</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15555</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -1891,13 +1909,13 @@
         <v>28271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,34 +1924,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>407</v>
+      </c>
+      <c r="D14" s="7">
+        <v>274437</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
         <v>446</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>296862</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="7">
-        <v>407</v>
-      </c>
-      <c r="I14" s="7">
-        <v>274437</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>853</v>
@@ -1942,13 +1960,13 @@
         <v>571300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,25 +1975,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>431</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289992</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>466</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>309578</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>431</v>
-      </c>
-      <c r="I15" s="7">
-        <v>289992</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2004,7 +2022,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15805265-A960-4103-A260-676FE1C703E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD55766-E612-480A-9134-18FF6324F8BC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2040,7 +2058,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2141,34 +2159,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6192</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4723</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6192</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2177,13 +2195,13 @@
         <v>10915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,34 +2210,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45434</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
         <v>58</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>40439</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="7">
-        <v>64</v>
-      </c>
-      <c r="I5" s="7">
-        <v>45434</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>122</v>
@@ -2228,13 +2246,13 @@
         <v>85872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,25 +2261,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>73</v>
+      </c>
+      <c r="D6" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>45162</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>73</v>
-      </c>
-      <c r="I6" s="7">
-        <v>51626</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2296,34 +2314,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>35475</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="7">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>26577</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="7">
-        <v>51</v>
-      </c>
-      <c r="I7" s="7">
-        <v>35475</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -2332,13 +2350,13 @@
         <v>62051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,49 +2365,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>235</v>
+      </c>
+      <c r="D8" s="7">
+        <v>164273</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="7">
         <v>286</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>196927</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="7">
-        <v>235</v>
-      </c>
-      <c r="I8" s="7">
-        <v>164273</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>361201</v>
+        <v>361200</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,25 +2416,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>286</v>
+      </c>
+      <c r="D9" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>326</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>223504</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>286</v>
-      </c>
-      <c r="I9" s="7">
-        <v>199748</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2431,7 +2449,7 @@
         <v>612</v>
       </c>
       <c r="N9" s="7">
-        <v>423252</v>
+        <v>423251</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2445,40 +2463,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5821</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6568</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5821</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2487,13 +2505,13 @@
         <v>12390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,34 +2520,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>77</v>
+      </c>
+      <c r="D11" s="7">
+        <v>54980</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="7">
         <v>71</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>48636</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="7">
-        <v>77</v>
-      </c>
-      <c r="I11" s="7">
-        <v>54980</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -2538,13 +2556,13 @@
         <v>103615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,25 +2571,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>85</v>
+      </c>
+      <c r="D12" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>81</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>55204</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>85</v>
-      </c>
-      <c r="I12" s="7">
-        <v>60801</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2606,34 +2624,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>68</v>
+      </c>
+      <c r="D13" s="7">
+        <v>47488</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="7">
         <v>56</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>37868</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="7">
-        <v>68</v>
-      </c>
-      <c r="I13" s="7">
-        <v>47488</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -2642,13 +2660,13 @@
         <v>85356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,34 +2675,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>376</v>
+      </c>
+      <c r="D14" s="7">
+        <v>264686</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7">
         <v>415</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>286001</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="7">
-        <v>376</v>
-      </c>
-      <c r="I14" s="7">
-        <v>264686</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>791</v>
@@ -2693,13 +2711,13 @@
         <v>550687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,25 +2726,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>444</v>
+      </c>
+      <c r="D15" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>471</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>323869</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>444</v>
-      </c>
-      <c r="I15" s="7">
-        <v>312174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2755,7 +2773,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2774,7 +2792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4811E71-AFFD-426D-B92A-7DBC1D7FCFFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757C1447-7091-4118-8FB2-16901D508E8D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,7 +2809,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2892,34 +2910,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2213</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>6255</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2213</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2928,13 +2946,13 @@
         <v>8468</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,34 +2961,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28393</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="7">
         <v>42</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30383</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="7">
-        <v>41</v>
-      </c>
-      <c r="I5" s="7">
-        <v>28393</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -2979,13 +2997,13 @@
         <v>58776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,25 +3012,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>51</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>36638</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>30606</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3047,34 +3065,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7">
+        <v>21741</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="7">
         <v>31</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>22390</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="7">
-        <v>30</v>
-      </c>
-      <c r="I7" s="7">
-        <v>21741</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -3083,13 +3101,13 @@
         <v>44131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,34 +3116,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>319</v>
+      </c>
+      <c r="D8" s="7">
+        <v>222257</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="7">
         <v>293</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>214673</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="7">
-        <v>319</v>
-      </c>
-      <c r="I8" s="7">
-        <v>222257</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>612</v>
@@ -3134,13 +3152,13 @@
         <v>436930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,25 +3167,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>349</v>
+      </c>
+      <c r="D9" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>324</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>237063</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>349</v>
-      </c>
-      <c r="I9" s="7">
-        <v>243998</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3196,40 +3214,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7575</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6448</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7575</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3238,13 +3256,13 @@
         <v>14023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,34 +3271,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>89</v>
+      </c>
+      <c r="D11" s="7">
+        <v>63515</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="7">
         <v>96</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>69054</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="7">
-        <v>89</v>
-      </c>
-      <c r="I11" s="7">
-        <v>63515</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -3289,13 +3307,13 @@
         <v>132569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,25 +3322,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>105</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>75502</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>100</v>
-      </c>
-      <c r="I12" s="7">
-        <v>71090</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3357,34 +3375,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>31528</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="7">
         <v>49</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>35092</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
-      <c r="I13" s="7">
-        <v>31528</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -3393,13 +3411,13 @@
         <v>66621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,34 +3426,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>449</v>
+      </c>
+      <c r="D14" s="7">
+        <v>314166</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="7">
         <v>431</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>314111</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="7">
-        <v>449</v>
-      </c>
-      <c r="I14" s="7">
-        <v>314166</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>880</v>
@@ -3444,13 +3462,13 @@
         <v>628276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,25 +3477,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>493</v>
+      </c>
+      <c r="D15" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>480</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>349203</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>493</v>
-      </c>
-      <c r="I15" s="7">
-        <v>345694</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3506,7 +3524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +3543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F665FF02-F6A0-4774-9AAC-A485BF0D1CB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4565FA-E90A-4EF6-82C1-ABA2D42B8FA2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3542,7 +3560,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3649,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3664,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3679,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,31 +3712,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
       <c r="I5" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -3727,13 +3745,13 @@
         <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -3745,25 +3763,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>18</v>
-      </c>
       <c r="I6" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3796,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3798,49 +3816,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7930</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>4385</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="7">
-        <v>11</v>
-      </c>
       <c r="I7" s="7">
-        <v>8140</v>
+        <v>4573</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>12524</v>
+        <v>12503</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,49 +3867,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>184</v>
+      </c>
+      <c r="D8" s="7">
+        <v>151383</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="7">
         <v>209</v>
       </c>
-      <c r="D8" s="7">
-        <v>191538</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="7">
-        <v>184</v>
-      </c>
       <c r="I8" s="7">
-        <v>139948</v>
+        <v>196948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>393</v>
       </c>
       <c r="N8" s="7">
-        <v>331487</v>
+        <v>348330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,25 +3918,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>195</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>215</v>
       </c>
-      <c r="D9" s="7">
-        <v>195923</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>195</v>
-      </c>
       <c r="I9" s="7">
-        <v>148088</v>
+        <v>201521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3933,7 +3951,7 @@
         <v>410</v>
       </c>
       <c r="N9" s="7">
-        <v>344011</v>
+        <v>360833</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3947,55 +3965,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>621</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,49 +4022,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
         <v>68</v>
       </c>
-      <c r="D11" s="7">
-        <v>52539</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H11" s="7">
-        <v>57</v>
-      </c>
       <c r="I11" s="7">
-        <v>40548</v>
+        <v>52053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>93087</v>
+        <v>90805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,25 +4073,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>69</v>
       </c>
-      <c r="D12" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>57</v>
-      </c>
       <c r="I12" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4088,7 +4106,7 @@
         <v>126</v>
       </c>
       <c r="N12" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4108,49 +4126,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7930</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
-        <v>5006</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
       <c r="I13" s="7">
-        <v>8140</v>
+        <v>5213</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>13145</v>
+        <v>13143</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,49 +4177,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>259</v>
+      </c>
+      <c r="D14" s="7">
+        <v>202542</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="7">
         <v>298</v>
       </c>
-      <c r="D14" s="7">
-        <v>260995</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" s="7">
-        <v>259</v>
-      </c>
       <c r="I14" s="7">
-        <v>194406</v>
+        <v>265755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>557</v>
       </c>
       <c r="N14" s="7">
-        <v>455401</v>
+        <v>468297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,25 +4228,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>270</v>
+      </c>
+      <c r="D15" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>305</v>
       </c>
-      <c r="D15" s="7">
-        <v>266001</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>270</v>
-      </c>
       <c r="I15" s="7">
-        <v>202546</v>
+        <v>270968</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4243,7 +4261,7 @@
         <v>575</v>
       </c>
       <c r="N15" s="7">
-        <v>468546</v>
+        <v>481440</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4257,7 +4275,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
